--- a/biology/Botanique/Genista_radiata/Genista_radiata.xlsx
+++ b/biology/Botanique/Genista_radiata/Genista_radiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Genêt à rameaux rayonnants ou Genêt radié (Genista radiata) est une espèce de sous-arbrisseaux de la famille des Fabaceae, présent dans le sud de l'Europe centrale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genêt radié mesure de 30 à 80 cm. Les rameaux verts et argentés se développent autour de nœuds. Les feuilles disposent de trois folioles. La floraison a lieu entre mai et juillet : les fleurs sont jaunes[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genêt radié mesure de 30 à 80 cm. Les rameaux verts et argentés se développent autour de nœuds. Les feuilles disposent de trois folioles. La floraison a lieu entre mai et juillet : les fleurs sont jaunes,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genêt radié est présent dans le sud de l'Europe centrale[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genêt radié est présent dans le sud de l'Europe centrale,.
 En France, cette plante se rencontre à des altitudes comprises entre 1400 et 1 800 m, dans les bois des départements des Hautes-Alpes et des Alpes-de-Haute-Provence (en région Provence-Alpes-Côte-d'Azur).
 </t>
         </is>
@@ -574,10 +590,12 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Inventaire national du patrimoine naturel et l'Union internationale pour la conservation de la nature (UICN) ont déclaré cette espèce vulnérable[4],[5].
-En France, la région Provence-Alpes-Côte d'Azur a inscrit le genêt radié sur la liste des espèces végétales protégées sur son territoire afin d'en interdire la cueillette, la coupe, la vente ou l'achat[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Inventaire national du patrimoine naturel et l'Union internationale pour la conservation de la nature (UICN) ont déclaré cette espèce vulnérable,.
+En France, la région Provence-Alpes-Côte d'Azur a inscrit le genêt radié sur la liste des espèces végétales protégées sur son territoire afin d'en interdire la cueillette, la coupe, la vente ou l'achat.
 </t>
         </is>
       </c>
